--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/computeListItem.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/computeListItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,9 +72,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
     <t>more</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>authentication</t>
   </si>
   <si>
-    <t>Identity verification</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -991,6 +985,14 @@
       </rPr>
       <t>将继续保留，如不需保留，请前往对应页面删除，以免产生额外费用。</t>
     </r>
+  </si>
+  <si>
+    <t>Stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity Verification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1389,15 +1391,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1406,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1417,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1428,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1439,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1450,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1461,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1472,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1483,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1494,413 +1495,413 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C45 A1:A45" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C8 A1:A45 C10:C44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>